--- a/biology/Botanique/Pennisetum/Pennisetum.xlsx
+++ b/biology/Botanique/Pennisetum/Pennisetum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pennisetum est un genre de plus de 80 espèces de plantes de la famille des Poaceae (Graminées).
 On en tire des produits alimentaires tels que le millet perle ou des herbes décoratives vivaces, telles que le kikuyu.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pennisetum alopecuroides (L.) Spreng. [syn. Pennisetum compressum R.Br.]
 Pennisetum bambusiforme (E.Fourn.) Hemsl. ex B.D.Jacks.
